--- a/biology/Botanique/Terrasse_Dufferin/Terrasse_Dufferin.xlsx
+++ b/biology/Botanique/Terrasse_Dufferin/Terrasse_Dufferin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La terrasse Dufferin est un belvédère situé dans la haute ville de Québec attenant au Château Frontenac au pied de la Citadelle.
-Édifiée en 1838 et agrandie en 1854 et en 1879, elle se compose d’une longue promenade en bois au-dessus du cap Diamant dans l'arrondissement historique du Vieux-Québec, dominant le fleuve Saint-Laurent, la Rive-Sud et l'Île d’Orléans. Cette terrasse protège le site archéologique du château Saint-Louis[1].
+Édifiée en 1838 et agrandie en 1854 et en 1879, elle se compose d’une longue promenade en bois au-dessus du cap Diamant dans l'arrondissement historique du Vieux-Québec, dominant le fleuve Saint-Laurent, la Rive-Sud et l'Île d’Orléans. Cette terrasse protège le site archéologique du château Saint-Louis.
 À proximité, quelques canons rappellent la position stratégique du lieu où l'on trouvait des batteries.
-De la terrasse de Lévis, on peut l'observer sur toute sa longueur[2].
+De la terrasse de Lévis, on peut l'observer sur toute sa longueur.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom rend hommage à Lord Dufferin qui fut gouverneur du Canada de 1872 à 1878. Au cours de son séjour à Québec, alors qu'il habitait la Citadelle de Québec l'été, il conçut des plans pour l'aménagement de la promenade. Lors de sa dernière activité officielle, en octobre 1878, il fut invité à poser la pierre angulaire de la terrasse, alors en rénovation, qui portera son nom.
 </t>
@@ -546,7 +560,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une première « terrasse Durham » fut construite sur les décombres du château Saint-Louis en 1838. Elle sera agrandie en 1854. Quand on l'eut agrandie de nouveau en 1878-1879, elle devint la terrasse Dufferin.
 </t>
@@ -577,19 +593,161 @@
           <t>Évènements[3]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lieu central de la ville de Québec, plusieurs évènements importants dans l'histoire de la ville s'y sont produits :
-Glissade
-Jusqu'aux années 1880, la terrasse Dufferin était habituellement peu fréquentée pendant la saison hivernale. Le 12 décembre 1884, les journaux de Québec ont rapporté que monsieur Patrick Fitzgerald, résidant de la rue Champlain à Québec, avait reçu l'autorisation de l'ingénieur municipal et du Comité des chemins, pour installer une glissade sur la terrasse Dufferin, dans le but d'en faire bénéficier le public.
-Cette glissoire, mesurant 60 pieds de hauteur, serat positionnée le long du glacis de la citadelle. En échange, Fitzgerald devrait maintenir un chemin et un escalier menant au sommet de la glissoire, tout en s'assurant de ne pas perturber la circulation piétonne[4].
-Éclairage de la terrasse[5]
-Le 29 septembre 1885, l'ingénieur Sigismund Mohr, alors en charge de la Compagnie d’éclairage électrique de Québec et Lévis, parvient à faire une démonstration qui deviendra une première en Amérique du nord : l'électrification de l'éclairage de la Terrasse Dufferin.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieu central de la ville de Québec, plusieurs évènements importants dans l'histoire de la ville s'y sont produits :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrasse_Dufferin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrasse_Dufferin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Évènements[3]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Glissade</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'aux années 1880, la terrasse Dufferin était habituellement peu fréquentée pendant la saison hivernale. Le 12 décembre 1884, les journaux de Québec ont rapporté que monsieur Patrick Fitzgerald, résidant de la rue Champlain à Québec, avait reçu l'autorisation de l'ingénieur municipal et du Comité des chemins, pour installer une glissade sur la terrasse Dufferin, dans le but d'en faire bénéficier le public.
+Cette glissoire, mesurant 60 pieds de hauteur, serat positionnée le long du glacis de la citadelle. En échange, Fitzgerald devrait maintenir un chemin et un escalier menant au sommet de la glissoire, tout en s'assurant de ne pas perturber la circulation piétonne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrasse_Dufferin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrasse_Dufferin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Évènements[3]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éclairage de la terrasse[5]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 septembre 1885, l'ingénieur Sigismund Mohr, alors en charge de la Compagnie d’éclairage électrique de Québec et Lévis, parvient à faire une démonstration qui deviendra une première en Amérique du nord : l'électrification de l'éclairage de la Terrasse Dufferin.
 En utilisant la nouvelle technologie des arcs électriques, il réussit à éclairer les lampadaires de la terrasse, en acheminant l'énergie hydroélectrique générée par centrale de la chute Montmorency. De plus, il a la capacité de contrôler l'alimentation électrique, la coupant et la rétablissant à volonté.
-Monument Samuel de Champlain
-Le 21 septembre 1898, sous la réalisation de la Société Saint-Jean-Baptiste de Québec, la Ville de Québec dévoile le Monument de Samuel de Champlain.
-Festivités
-La terrasse a été le lieu de départ de différentes festivités :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrasse_Dufferin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrasse_Dufferin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Évènements[3]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Monument Samuel de Champlain</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 21 septembre 1898, sous la réalisation de la Société Saint-Jean-Baptiste de Québec, la Ville de Québec dévoile le Monument de Samuel de Champlain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrasse_Dufferin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrasse_Dufferin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Évènements[3]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Festivités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La terrasse a été le lieu de départ de différentes festivités :
 1908: Fêtes du 300e
 2008: Festivités du 400e
 Festivités annuelles du 1er juillet (fête du Canada)</t>
